--- a/classes/class13/data/dm431_2020.xlsx
+++ b/classes/class13/data/dm431_2020.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\2020-431\431-classes\431_class_13\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1313784D-EA3E-4AD2-AEDE-35748EFC565F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE39C8F3-A033-47BD-88EA-FAB77A098F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dm431_2020" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="473">
   <si>
     <t>subject</t>
   </si>
@@ -1436,12 +1436,15 @@
   </si>
   <si>
     <t>S-431</t>
+  </si>
+  <si>
+    <t>S-007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2275,10 +2278,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2739,7 +2744,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
